--- a/results/mp/logistic/corona/confidence/84/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,51 +43,48 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -97,18 +94,27 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -121,156 +127,144 @@
     <t>wow</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -281,6 +275,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -638,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -807,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6896551724137931</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6052631578947368</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.9152542372881356</v>
@@ -907,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.9</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5666666666666667</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5652173913043478</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8846153846153846</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1057,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5588235294117647</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>314</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8407310704960835</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L11">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="M11">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,37 +1154,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4722222222222222</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.455026455026455</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C13">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1225,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8207547169811321</v>
+        <v>0.7875</v>
       </c>
       <c r="L13">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="M13">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3624031007751938</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="C14">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D14">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8098591549295775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2711864406779661</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7948717948717948</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.24</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7926829268292683</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L17">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2363636363636364</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.7875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L18">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2214765100671141</v>
+        <v>0.1416666666666667</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>116</v>
+        <v>309</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1527777777777778</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.06746031746031746</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>235</v>
+        <v>360</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7659574468085106</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,37 +1654,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007414571244358479</v>
+        <v>0.008421052631578947</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F22">
-        <v>0.8200000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>3079</v>
+        <v>2355</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.765625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L22">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M22">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1699,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006318449873631003</v>
+        <v>0.007015902712815715</v>
       </c>
       <c r="C23">
         <v>15</v>
@@ -1725,19 +1722,19 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2359</v>
+        <v>2123</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1754,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.00505738183232834</v>
+        <v>0.006449532408900355</v>
       </c>
       <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
         <v>26</v>
       </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
       <c r="E24">
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="F24">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5115</v>
+        <v>3081</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,37 +1804,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003945230912044558</v>
+        <v>0.00608695652173913</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="F25">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4292</v>
+        <v>2286</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,89 +1854,137 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003219963775407527</v>
+        <v>0.003947979563399907</v>
       </c>
       <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>39</v>
+      </c>
+      <c r="E26">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4289</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L26">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.003888024883359254</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>0.51</v>
+      </c>
+      <c r="F27">
+        <v>0.49</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>5124</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.002812374447569305</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+      <c r="E28">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4964</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L28">
         <v>16</v>
       </c>
-      <c r="D26">
-        <v>43</v>
-      </c>
-      <c r="E26">
-        <v>0.63</v>
-      </c>
-      <c r="F26">
-        <v>0.37</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>4953</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L27">
-        <v>23</v>
-      </c>
-      <c r="M27">
-        <v>23</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
       <c r="M28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1951,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1977,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6363636363636364</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2003,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.6323529411764706</v>
+        <v>0.64</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2029,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>125</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2055,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.6031746031746031</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2081,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2107,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.5941422594142259</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2133,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2159,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2185,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.5813953488372093</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2211,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.576271186440678</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L39">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="M39">
-        <v>170</v>
+        <v>53</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2237,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2263,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2289,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.5428571428571428</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2315,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.5393258426966292</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L43">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2341,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.5357142857142857</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2367,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.5319148936170213</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2393,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.5151515151515151</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2419,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.4642857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2445,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.4047619047619048</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2471,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.3725490196078431</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2497,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.358974358974359</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L50">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2523,293 +2568,215 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.3424657534246575</v>
+        <v>0.01918265221017515</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.3111111111111111</v>
+        <v>0.01005656819610308</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>31</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.2542372881355932</v>
+        <v>0.008623922009748781</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>44</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.203125</v>
+        <v>0.006557377049180328</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>51</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.02005012531328321</v>
+        <v>0.005644402634054563</v>
       </c>
       <c r="L55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N55">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="O55">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1173</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="K56">
-        <v>0.00880503144654088</v>
+        <v>0.005103224309904894</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N56">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O56">
-        <v>0.22</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>1576</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>0.006001500375093774</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N57">
-        <v>0.7</v>
+        <v>0.51</v>
       </c>
       <c r="O57">
-        <v>0.3</v>
+        <v>0.49</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2650</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K58">
-        <v>0.005421686746987952</v>
+        <v>0.003613006824568446</v>
       </c>
       <c r="L58">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N58">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O58">
-        <v>0.37</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4953</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K59">
-        <v>0.005327868852459016</v>
-      </c>
-      <c r="L59">
-        <v>13</v>
-      </c>
-      <c r="M59">
-        <v>18</v>
-      </c>
-      <c r="N59">
-        <v>0.72</v>
-      </c>
-      <c r="O59">
-        <v>0.28</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60">
-        <v>0.004670169293636894</v>
-      </c>
-      <c r="L60">
-        <v>24</v>
-      </c>
-      <c r="M60">
-        <v>50</v>
-      </c>
-      <c r="N60">
-        <v>0.48</v>
-      </c>
-      <c r="O60">
-        <v>0.52</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>5115</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K61">
-        <v>0.004407330085826954</v>
-      </c>
-      <c r="L61">
-        <v>19</v>
-      </c>
-      <c r="M61">
-        <v>36</v>
-      </c>
-      <c r="N61">
-        <v>0.53</v>
-      </c>
-      <c r="O61">
-        <v>0.47</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>4292</v>
+        <v>4964</v>
       </c>
     </row>
   </sheetData>
